--- a/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
+++ b/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>506003</t>
-  </si>
-  <si>
-    <t>富国科创板两年定期开放混合</t>
-  </si>
-  <si>
-    <t>30.08</t>
-  </si>
-  <si>
-    <t>99.76</t>
-  </si>
-  <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>1.0438</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
+++ b/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
+++ b/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.84</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +882,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4367</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
+++ b/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.18</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6447</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.84</v>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1140,13 +1205,625 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8742</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6732</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5363</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
+++ b/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0438</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006218</t>
+          <t>000727</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国生物医药科技混合A</t>
+          <t>融通健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>20.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5096</t>
+          <t>1.6447</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -637,32 +643,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>010709</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>安信医药健康主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>25.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.94</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2261</t>
+          <t>1.3005</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -675,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011308</t>
+          <t>006218</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国生物医药科技混合C</t>
+          <t>富国生物医药科技混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>11.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>87.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0470</t>
+          <t>0.8742</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -713,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>010710</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>安信医药健康主题股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>13.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.67</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0392</t>
+          <t>0.6732</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -751,36 +757,450 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5363</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>92.67</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,36 +1549,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>006218</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>富国生物医药科技混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6447</t>
+          <t>0.5096</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1167,32 +1587,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010709</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票A</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.50</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.94</t>
+          <t>71.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3005</t>
+          <t>0.2261</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1205,36 +1625,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006218</t>
+          <t>011308</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国生物医药科技混合A</t>
+          <t>富国生物医药科技混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.83</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.24</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8742</t>
+          <t>0.0470</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1243,36 +1663,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010710</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票C</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.20</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.94</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6732</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1281,450 +1701,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5363</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>100016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国天源沪港深平衡混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>72.33</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4648</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011308</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国生物医药科技混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2365</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011383</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富安达医药创新混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0650</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003284</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中邮医药健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001861</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0289</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010447</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中邮未来成长混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011788</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工银聚益混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>39.74</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>014931</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国天源沪港深平衡混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>72.33</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010448</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中邮未来成长混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.37</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011789</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>工银聚益混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>39.74</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>014470</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1738,96 +1744,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.04</v>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
+++ b/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>5.91</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>3.18</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.84</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.04</v>
       </c>
     </row>
@@ -549,6 +566,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6337</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5794</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3972</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011404</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014220</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩ESG量化混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011403</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014221</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1208,7 +1849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1492,7 +2133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1738,7 +2379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
+++ b/数据整理/stocks/A股/科创板/688621-阳光诺和.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>4.57</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>5.91</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>3.18</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.84</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.04</v>
       </c>
     </row>
@@ -566,6 +583,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6389</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011801</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011802</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1189,7 +2212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1849,7 +2872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2133,7 +3156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2379,7 +3402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
